--- a/01.项目管理/02.项目计划/移动端App开发计划.xlsx
+++ b/01.项目管理/02.项目计划/移动端App开发计划.xlsx
@@ -1,26 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\portal.doc\01.项目管理\02.项目计划\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A95979A7-CA07-4C9B-A474-3B38CD83C690}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10755" xr2:uid="{7028208F-DB25-4353-ADCA-C209F98522BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -28,114 +17,89 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>功能点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>功能子项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划开始时间</t>
   </si>
   <si>
     <t>计划完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际开始时间</t>
+  </si>
+  <si>
+    <t>实际完成时间</t>
+  </si>
+  <si>
+    <t>开发进度</t>
+  </si>
+  <si>
+    <t>测试进度</t>
+  </si>
+  <si>
+    <t>开发负责人</t>
+  </si>
+  <si>
+    <t>测试负责人</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
   <si>
     <t>应用订阅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>应用列表查询接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>应用列表更新接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>应用管理页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>首页业务监测板块展示最新订阅内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>业务监测板块应用列表展示最新订阅内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>应用展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>应用配置信息查询接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用核心指标栏目展示</t>
   </si>
   <si>
     <t>应用首页指标展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用核心指标栏目展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>应用其他页面展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>应用切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -164,16 +128,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -197,14 +161,37 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -253,7 +240,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -286,26 +273,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -338,23 +308,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -497,32 +450,26 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BD5D4D-BCE6-49EE-AE19-D9943385F570}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="37.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.86328125" customWidth="1"/>
-    <col min="8" max="8" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.375" customWidth="1"/>
+    <col min="3" max="6" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="8.75" customWidth="1"/>
+    <col min="9" max="10" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,72 +477,92 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C2" s="2">
+        <v>20180806</v>
+      </c>
+      <c r="D2" s="2">
+        <v>20180810</v>
+      </c>
+      <c r="E2" s="2">
+        <v>20180806</v>
+      </c>
+      <c r="F2" s="2">
+        <v>20180810</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C3" s="2">
+        <v>20180806</v>
+      </c>
+      <c r="D3" s="2">
+        <v>20180810</v>
+      </c>
+      <c r="E3" s="2">
+        <v>20180806</v>
+      </c>
+      <c r="F3" s="2">
+        <v>20180810</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="C4" s="2">
+        <v>20180816</v>
+      </c>
+      <c r="D4" s="2">
+        <v>20180820</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -604,13 +571,17 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C5" s="2">
+        <v>20180821</v>
+      </c>
+      <c r="D5" s="2">
+        <v>20180825</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -619,13 +590,17 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20180821</v>
+      </c>
+      <c r="D6" s="2">
+        <v>20180825</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -634,15 +609,19 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C7" s="2">
+        <v>20180827</v>
+      </c>
+      <c r="D7" s="2">
+        <v>20180907</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -651,13 +630,17 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C8" s="2">
+        <v>20180910</v>
+      </c>
+      <c r="D8" s="2">
+        <v>20180921</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -666,13 +649,17 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C9" s="2">
+        <v>20180925</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20181008</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -681,13 +668,17 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C10" s="2">
+        <v>20181009</v>
+      </c>
+      <c r="D10" s="2">
+        <v>20181015</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -696,13 +687,17 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="C11" s="2">
+        <v>20181015</v>
+      </c>
+      <c r="D11" s="2">
+        <v>20181017</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -713,6 +708,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>